--- a/data/case1/13/P1_13.xlsx
+++ b/data/case1/13/P1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.10970909915421601</v>
+        <v>0.14243932011947891</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999988900449921</v>
+        <v>-0.097974783404570331</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999988992026658</v>
+        <v>-0.0089999990776465921</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28398620809788255</v>
+        <v>0.28398730965901464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999989222276895</v>
+        <v>-0.0059999990998225172</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999988818795202</v>
+        <v>-0.005999999065572581</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999998720853895</v>
+        <v>-0.019999998918052597</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998712507683</v>
+        <v>-0.019999998909956851</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999988617400746</v>
+        <v>-0.0059999990458603492</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.005999998854584021</v>
+        <v>-0.0059999990387638036</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999988709832905</v>
+        <v>-0.0044999990534009271</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999988529848558</v>
+        <v>-0.0059999990366876865</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999988480656796</v>
+        <v>-0.0059999990314771878</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999998779535836</v>
+        <v>-0.011999998968402537</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.025421193701999911</v>
+        <v>-0.0059999990303847284</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999988443890651</v>
+        <v>0.022603005201248028</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999988403207638</v>
+        <v>-0.0059999990276766724</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999988058533376</v>
+        <v>-0.0089999989959768101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.008999998899472228</v>
+        <v>-0.0089999990787581474</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.058892309747422544</v>
+        <v>-0.0089999990705944555</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.008999998870724113</v>
+        <v>-0.0089999990695304177</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999988699993594</v>
+        <v>-0.0089999990687985587</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999988904514439</v>
+        <v>-0.0068480847665002287</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998502109115</v>
+        <v>-0.041999998713937003</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998494760327</v>
+        <v>-0.041999998706962138</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999988781811453</v>
+        <v>-0.0059999990621371069</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999988731531673</v>
+        <v>-0.0059999990575372308</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999988501626689</v>
+        <v>-0.018012105345378338</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.020576101717550088</v>
+        <v>-0.011999998964004277</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999998669905761</v>
+        <v>-0.019999998876166991</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999998715888196</v>
+        <v>-0.014999998921069846</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999998646543006</v>
+        <v>-0.012335243385160233</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.005999998815501506</v>
+        <v>-0.0059999990130119585</v>
       </c>
     </row>
   </sheetData>
